--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-sample-property.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-sample-property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B6574-3FB2-1C43-A5D6-C244275AC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C72902-FCF3-A647-9645-27073E12CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="6100" windowWidth="27640" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1460" yWindow="1060" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Validation script</t>
   </si>
   <si>
-    <t>Generated Code Prefix</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Vocabulary Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>SAMPLE:PERSON</t>
+  </si>
+  <si>
+    <t>Vocabulary code</t>
+  </si>
+  <si>
+    <t>Generated code prefix</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -599,31 +599,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -631,25 +631,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -657,25 +657,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -683,25 +683,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="b">
         <v>1</v>
@@ -718,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="b">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
